--- a/pred_ohlcv/54_21/2020-01-24 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-439.1721933599998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-47.41309335999976</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-33.16329335999976</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58.50479335999977</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-36.08249335999977</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-142.9790933599998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-452.5813933599998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-68.52639335999976</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-150.1920933599998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-121.1435933599998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-168.4829933599998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-181.6847933599998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-170.4747933599998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-191.0442933599998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-191.0442933599998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-317.3918933599998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-398.6250933599998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-448.4735933599998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4250.879118409999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4266.95131841</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4320.05621841</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4383.08061841</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4335.40091841</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4268.08771841</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4336.08771841</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4119.95531841</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4026.855818409999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3424.785018409999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3481.08501841</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2907.271718409999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2912.271718409999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3236.671718409999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3873.196618409999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4198.03361841</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4405.40011841</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2741.550718409999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3066.91721841</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3023.111436689999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3010.466036689999</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3010.416036689999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3486.046336689999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3459.098236689999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3477.108836689999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3477.108836689999</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-16871.05839432</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-16884.99989432</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16839.16789432</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-18223.84739432</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-18154.72849432</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-18158.66599432</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-17903.17599432</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-17866.34189432</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-17877.43219432</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-17877.94219432</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-18077.94219432</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-17992.98459431999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-18010.20269431999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-18924.83679432</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-19411.45318032</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-17835.43976711</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-17828.43976711</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-17902.94716711</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-17732.94716711</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-17738.06956711</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-17768.13626711</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-17715.63626711</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-17859.25206711</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-17860.94896711</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-17289.70758658</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-16920.61568658</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-16600.77017258</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-16479.90267258</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-16511.63767258</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-16409.13767258</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-16546.14807258</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-16005.97777258</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-15920.97777258</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-15925.97777258</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-16013.11597258</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-16071.19557257999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-15944.96167258</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-15929.96167258</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-15792.59467257999</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-16120.85807257999</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-16123.85807257999</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-16113.85807257999</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-16112.85807257999</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-16082.81797257999</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-16094.81797257999</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-16165.12337257999</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-16925.22837257999</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-16756.60467257999</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-16879.16417257999</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-16498.57747257999</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-16593.57747257999</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-16263.80967257999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-16520.00647257999</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-16274.00077257999</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-16157.78707257999</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-16162.78707257999</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-16810.36546975999</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-16790.01103642999</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-16793.49003642999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-17167.84553642999</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-26941.13468165002</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-26941.13468165002</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-27014.88508165002</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-27014.28508165002</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-27020.99028165002</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-27020.53008165002</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-28329.67918165002</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-28508.13738165002</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-28174.84308165002</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-27579.50308165002</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-27582.23128165002</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-439.1721933599998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-47.41309335999976</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-33.16329335999976</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58.50479335999977</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-36.08249335999977</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-142.9790933599998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-452.5813933599998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-68.52639335999976</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-150.1920933599998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-121.1435933599998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-168.4829933599998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-181.6847933599998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-191.0442933599998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4026.63789336</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4313.55779336</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4320.05621841</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4383.08061841</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4378.54861841</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4335.40091841</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4268.08771841</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4336.08771841</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4119.95531841</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4026.855818409999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3424.785018409999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3481.08501841</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2907.271718409999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2912.271718409999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3236.671718409999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3873.196618409999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4198.03361841</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4405.40011841</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2730.385118409999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2741.550718409999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2571.747318409999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2560.36761841</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2565.36761841</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2638.99761841</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3066.91721841</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-3072.91721841</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2714.44389023</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2411.66073669</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2547.05863669</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2544.09863669</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2516.45063669</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2268.95063669</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2314.12803669</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2480.254736689999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2978.984736689999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2977.414736689999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3023.111436689999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3010.466036689999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3010.416036689999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3486.046336689999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3459.098236689999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-16871.05839432</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-16884.99989432</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-16839.16789432</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-18223.84739432</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-18154.72849432</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-18158.66599432</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-17903.17599432</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-17866.34189432</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-17877.43219432</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-17877.94219432</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-18077.94219432</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-17992.98459431999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-18010.20269431999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-18924.83679432</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-19411.45318032</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-17835.43976711</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-17828.43976711</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-17902.94716711</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-17732.94716711</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-17738.06956711</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-17768.13626711</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-17715.63626711</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-17859.25206711</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-17860.94896711</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-17289.70758658</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-16920.61568658</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-16600.77017258</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-16479.90267258</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-16511.63767258</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-16409.13767258</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-16546.14807258</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-16005.97777258</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-15920.97777258</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-15925.97777258</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-16013.11597258</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-16071.19557257999</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-15944.96167258</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-15929.96167258</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-15792.59467257999</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-16120.85807257999</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-16123.85807257999</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-16113.85807257999</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-16112.85807257999</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-16082.81797257999</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-16094.81797257999</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-16165.12337257999</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-16925.22837257999</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-16756.60467257999</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-16879.16417257999</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-16498.57747257999</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-16593.57747257999</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-16263.80967257999</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-16520.00647257999</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-16274.00077257999</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-16157.78707257999</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-16162.78707257999</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-16810.36546975999</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-16790.01103642999</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-16793.49003642999</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-17167.84553642999</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-27020.53008165002</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-28329.67918165002</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-28192.06208165002</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-28508.13738165002</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-28174.84308165002</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-28015.36598165002</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
